--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>511927.4004639974</v>
+        <v>567735.2317438143</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484435</v>
+        <v>492028.9342484453</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7843166.36487511</v>
+        <v>7849479.496643571</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>386.8391409206043</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>8.184812400121125</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -832,7 +832,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -868,7 +868,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,10 +877,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>174.8078702459933</v>
+        <v>37.58380359691712</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>94.074984170956</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,10 +905,10 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -953,13 +953,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>284.5373769136796</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>51.25395846644548</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1102,7 +1102,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>105.6319392430749</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1111,16 +1111,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>122.7894153319075</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>214.4947205791354</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>274.2014219024978</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>168.7843377880176</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>212.1880754063503</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>32.67077719907</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480022984</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571959</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>154.0254420454384</v>
+        <v>154.4380635245674</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>64.34965323462509</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>411.0681431807205</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>206.485501777225</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2008,16 +2008,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>94.21878984361692</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>170.0689368712257</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>154.0254420454387</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>33.08339867820401</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2248,7 +2248,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>35.34780583513549</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225813</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>18.05677735225799</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225813</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>31.24391673888126</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571962</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3190,7 +3190,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225813</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>179.7915225946169</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3329,7 +3329,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864815</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>136.0564930766998</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3554,7 +3554,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556936</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3670,7 +3670,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225694</v>
+        <v>105.2234111170473</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3740,25 +3740,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791314499</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,16 +3797,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633438</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3907,7 +3907,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>35.34780583513543</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>214.36938066746</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3977,25 +3977,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791314499</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4034,16 +4034,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776672</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4147,7 +4147,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.34318456170401</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1647.308997322836</v>
+        <v>974.0783358803401</v>
       </c>
       <c r="C2" t="n">
-        <v>1613.206928546663</v>
+        <v>939.9762671041674</v>
       </c>
       <c r="D2" t="n">
-        <v>1581.337547761512</v>
+        <v>504.0664822786119</v>
       </c>
       <c r="E2" t="n">
-        <v>1152.75587349878</v>
+        <v>474.3321414773112</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>450.5051159269229</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>524.3060841805662</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>524.3060841805662</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>524.3060841805662</v>
       </c>
       <c r="N2" t="n">
-        <v>1107.976466382457</v>
+        <v>524.3060841805662</v>
       </c>
       <c r="O2" t="n">
-        <v>1528.02936532736</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1739.711376797691</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756285</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693179</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.645126566218</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.645126566218</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1789.028176500044</v>
       </c>
       <c r="W2" t="n">
-        <v>1688.915942807568</v>
+        <v>1384.172721911077</v>
       </c>
       <c r="X2" t="n">
-        <v>1673.813883427282</v>
+        <v>1369.070662530792</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.56816376734</v>
+        <v>1364.82494287085</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397437</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064444</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768568</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.5621248982375</v>
+        <v>988.2632708524427</v>
       </c>
       <c r="C4" t="n">
-        <v>774.5621248982375</v>
+        <v>815.7015593356676</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>649.8235665371903</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>480.0655627879277</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>303.3585087496838</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>137.7672337755115</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755115</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018684</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>410.4454242860123</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>828.6553060539734</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2150.067225618312</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214714</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512711</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>2028.825591091166</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>1750.392590344271</v>
       </c>
       <c r="V4" t="n">
-        <v>951.1357312073217</v>
+        <v>1463.437082214701</v>
       </c>
       <c r="W4" t="n">
-        <v>774.5621248982375</v>
+        <v>1425.473644238017</v>
       </c>
       <c r="X4" t="n">
-        <v>774.5621248982375</v>
+        <v>1180.08188957143</v>
       </c>
       <c r="Y4" t="n">
-        <v>774.5621248982375</v>
+        <v>1180.08188957143</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6066390714051</v>
+        <v>1671.542826455969</v>
       </c>
       <c r="C5" t="n">
-        <v>408.5045702952325</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D5" t="n">
-        <v>376.6351895100811</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E5" t="n">
-        <v>346.9008487087803</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0738231583921</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1134.24202645431</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>771.6250763881362</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W5" t="n">
-        <v>484.2135845561366</v>
+        <v>2189.95624607292</v>
       </c>
       <c r="X5" t="n">
-        <v>469.1115251758513</v>
+        <v>1770.813782652231</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8658055159088</v>
+        <v>1766.568062992289</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>992.2117929153466</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2541.944076608442</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2296.064630186897</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2017.631629440002</v>
       </c>
       <c r="V7" t="n">
-        <v>992.2117929153466</v>
+        <v>1730.676121310433</v>
       </c>
       <c r="W7" t="n">
-        <v>992.2117929153466</v>
+        <v>1458.649716896724</v>
       </c>
       <c r="X7" t="n">
-        <v>992.2117929153466</v>
+        <v>1213.257962230137</v>
       </c>
       <c r="Y7" t="n">
-        <v>992.2117929153466</v>
+        <v>985.8382915442448</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>280.3344638279978</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C8" t="n">
-        <v>246.2323950518252</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>214.3630142666738</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>184.628673465373</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>160.8016479149848</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851257</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851257</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851257</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851257</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>491.8246367576056</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>946.8773380566986</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>946.8773380566986</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>946.8773380566986</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1383.544071626535</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626535</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925629</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925629</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1754.944899109465</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1534.877671982504</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1534.877671982504</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="V8" t="n">
-        <v>1534.877671982504</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="W8" t="n">
-        <v>1130.022217393537</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X8" t="n">
-        <v>710.8797539728481</v>
+        <v>2217.4151554573</v>
       </c>
       <c r="Y8" t="n">
-        <v>302.5936302725015</v>
+        <v>1809.129031756954</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498054</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330009</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599546</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761162</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230011</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851257</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897018</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851825</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>387.3939335851825</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>387.3939335851825</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>387.3939335851825</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>387.3939335851825</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447954</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937321</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385704</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716274</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114677</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503477</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295685</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943.2683845536188</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>943.2683845536188</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>777.3903917551415</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>607.6323880058789</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>430.925333967635</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934627</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838372</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851257</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851257</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851257</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264736</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255666</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.293321683211</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1771.962570908992</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925629</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925629</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582928997</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507452</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1135.087003272606</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1135.087003272606</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1135.087003272606</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1135.087003272606</v>
+        <v>1235.618046634173</v>
       </c>
       <c r="Y10" t="n">
-        <v>1135.087003272606</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2336.308741984732</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C11" t="n">
-        <v>1898.166269168155</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1462.2564843426</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E11" t="n">
-        <v>1028.481739500895</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F11" t="n">
-        <v>600.6143099101027</v>
+        <v>787.6807519874956</v>
       </c>
       <c r="G11" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.1527660539752</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
-        <v>96.7359766811152</v>
+        <v>352.5751665457787</v>
       </c>
       <c r="K11" t="n">
-        <v>931.0862686392932</v>
+        <v>1186.925458503957</v>
       </c>
       <c r="L11" t="n">
-        <v>2006.146234892153</v>
+        <v>1186.925458503957</v>
       </c>
       <c r="M11" t="n">
-        <v>2006.146234892153</v>
+        <v>1186.925458503957</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940407</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510714</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302704</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928799</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245816</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.892354179642</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590676</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169986</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2762.60831246964</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.8119928040993</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>612.2502812873242</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D13" t="n">
-        <v>446.3722884888469</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>276.6142847395843</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F13" t="n">
-        <v>99.90723070134044</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="H13" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I13" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418844</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.468441289274</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.442036875566</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.050282208978</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>976.6306115230865</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>97.1527660539752</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5285,43 +5285,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693464</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693464</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.99017326377</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097166</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.79883405576</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112636</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429653</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363479</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774513</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353823</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653477</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
         <v>1102.064021433509</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580466</v>
+        <v>1012.231663489991</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412714</v>
+        <v>839.6699519732163</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427941</v>
+        <v>673.7919591747388</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>504.0339554254761</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552876</v>
+        <v>327.3269013872323</v>
       </c>
       <c r="G16" t="n">
-        <v>96.7359766811152</v>
+        <v>161.7356264130599</v>
       </c>
       <c r="H16" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243222</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162926</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1204.050282208978</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.1527660539752</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I17" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J17" t="n">
-        <v>96.7359766811152</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2006.146234892153</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940407</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510714</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344109</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302704</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T17" t="n">
-        <v>4753.146960239597</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.958796257035</v>
+        <v>4170.46278304646</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.103341668068</v>
+        <v>3765.607328457493</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.960878247379</v>
+        <v>3346.464865036804</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547032</v>
+        <v>2938.178741336457</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O18" t="n">
         <v>1102.064021433509</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>965.4711828007307</v>
+        <v>840.4448585695615</v>
       </c>
       <c r="C19" t="n">
-        <v>792.9094712839557</v>
+        <v>667.8831470527864</v>
       </c>
       <c r="D19" t="n">
-        <v>627.0314784854784</v>
+        <v>502.0051542543091</v>
       </c>
       <c r="E19" t="n">
-        <v>457.2734747362156</v>
+        <v>502.0051542543091</v>
       </c>
       <c r="F19" t="n">
-        <v>280.5664206979718</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G19" t="n">
-        <v>185.3959259064399</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I19" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S19" t="n">
-        <v>2713.395586583915</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2467.51614016237</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U19" t="n">
-        <v>2189.083139415475</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V19" t="n">
-        <v>1902.127631285906</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W19" t="n">
-        <v>1630.101226872197</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X19" t="n">
-        <v>1384.70947220561</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y19" t="n">
-        <v>1157.289801519718</v>
+        <v>1032.263477288549</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.680751987495</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G20" t="n">
-        <v>386.282920610759</v>
+        <v>385.866131237899</v>
       </c>
       <c r="H20" t="n">
-        <v>97.1527660539752</v>
+        <v>96.73597668111523</v>
       </c>
       <c r="I20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111523</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2481.810506693464</v>
+        <v>2481.810506693465</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.810506693464</v>
+        <v>2481.810506693465</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.99017326377</v>
+        <v>3461.990173263771</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097166</v>
+        <v>4290.300048097167</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055761</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055761</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239597</v>
+        <v>4836.798834055761</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112636</v>
+        <v>4803.381259633333</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429653</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363479</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774513</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353823</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653477</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="21">
@@ -5811,19 +5811,19 @@
         <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
-        <v>401.3609716556035</v>
+        <v>401.3609716556036</v>
       </c>
       <c r="E21" t="n">
-        <v>307.2405569825572</v>
+        <v>307.2405569825573</v>
       </c>
       <c r="F21" t="n">
-        <v>223.8567185987188</v>
+        <v>223.8567185987189</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4716288649027</v>
+        <v>138.4716288649028</v>
       </c>
       <c r="H21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111523</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.2298140987274</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C22" t="n">
-        <v>633.6681025819523</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D22" t="n">
-        <v>467.790109783475</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
-        <v>298.0321060342123</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111506</v>
       </c>
       <c r="H22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111523</v>
       </c>
       <c r="I22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111523</v>
       </c>
       <c r="J22" t="n">
         <v>183.3156618458051</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0484328177146</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6181,7 +6181,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
         <v>1617.386921419177</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6406,7 +6406,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S28" t="n">
         <v>2700.681281130895</v>
@@ -6418,7 +6418,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
         <v>780.1951658309357</v>
@@ -6655,16 +6655,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>875.5388337745582</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1294.777123179437</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1067.357452493545</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6944,25 +6944,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -6980,7 +6980,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
         <v>444.5591692831957</v>
@@ -7120,16 +7120,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
         <v>1617.386921419177</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436394</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,19 +7181,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7202,19 +7202,19 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136696</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>864.7097725347917</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>692.1480610180166</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7333,7 +7333,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2612.634176317976</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2366.754729896431</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2088.321729149536</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1801.366221019967</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1529.339816606258</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1283.948061939671</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1056.528391253779</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7397,13 +7397,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7418,7 +7418,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423628</v>
@@ -7454,7 +7454,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.7546776883918</v>
+        <v>1041.416826573036</v>
       </c>
       <c r="C43" t="n">
-        <v>639.1929661716167</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D43" t="n">
-        <v>473.3149733731394</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E43" t="n">
-        <v>303.5569696238766</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173567</v>
+        <v>1978.073275058211</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759858</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.992967093271</v>
+        <v>1460.655115977915</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.573296407379</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651787</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7634,13 +7634,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771601</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004239</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7655,43 +7655,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="45">
@@ -7704,16 +7704,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
         <v>143.9964924545671</v>
@@ -7725,22 +7725,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K45" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="L45" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="M45" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="N45" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="O45" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.7546776883912</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C46" t="n">
-        <v>639.1929661716161</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D46" t="n">
-        <v>473.3149733731388</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>303.5569696238761</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>126.8499155856322</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G46" t="n">
         <v>102.2608402707796</v>
@@ -7804,13 +7804,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
@@ -7849,7 +7849,7 @@
         <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407378</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>479.9987875054338</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854691</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>308.3808099909393</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314071</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314071</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>441.0775086564008</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314073</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662757</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314071</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314073</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314071</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476427887</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>258.4234241057208</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>309.6062697457119</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807414</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N17" t="n">
-        <v>309.6062697457119</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>40.81776196807414</v>
+        <v>40.81776196807505</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10127,7 +10127,7 @@
         <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-2.986857035790905e-13</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10428,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>185.1957776566184</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>185.1957776566218</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>268.0111327346203</v>
+        <v>267.5985112554913</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>74.15349933190413</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>10.96843159933814</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>50.14457787892832</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>69.71657238081369</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>55.07653710780707</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>268.01113273462</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>184.7831561774877</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627252</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729423844</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627252</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>63.14631452530472</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627264</v>
+        <v>52.42554389793601</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>69.71657238081389</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>689719.9794556221</v>
+        <v>691663.8324859596</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>689719.9794556221</v>
+        <v>692214.2798671556</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>690082.5404119956</v>
+        <v>692214.2798671556</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657437.6719333674</v>
+        <v>657437.671933367</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657437.6719333673</v>
+        <v>657437.671933367</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657437.6719333673</v>
+        <v>657437.671933367</v>
       </c>
     </row>
     <row r="8">
@@ -26320,13 +26320,13 @@
         <v>254669.9769479441</v>
       </c>
       <c r="E2" t="n">
-        <v>240123.8515365464</v>
+        <v>240123.8515365463</v>
       </c>
       <c r="F2" t="n">
         <v>240123.8515365463</v>
       </c>
       <c r="G2" t="n">
-        <v>240123.8515365464</v>
+        <v>240123.8515365463</v>
       </c>
       <c r="H2" t="n">
         <v>240123.8515365464</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039033</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390628</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200198</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520281</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.45389855990652e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.7156328394</v>
+        <v>18364.71563283934</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856136</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784484</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509333</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104684</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.345267868590081e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>133864.3835971962</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>167571.7627414882</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
         <v>13668.38414064833</v>
@@ -26448,16 +26448,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
+        <v>14245.20557049268</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14245.20557049256</v>
+      </c>
+      <c r="O4" t="n">
         <v>14245.20557049264</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>14245.20557049264</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14245.20557049258</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14245.20557049261</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.136258142</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846955</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764756</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,7 +26500,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26509,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579247</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122246.3517140991</v>
+        <v>-155855.7994112974</v>
       </c>
       <c r="C6" t="n">
-        <v>19944.94894561082</v>
+        <v>40986.05478714484</v>
       </c>
       <c r="D6" t="n">
-        <v>14542.13658598438</v>
+        <v>58326.59916105114</v>
       </c>
       <c r="E6" t="n">
-        <v>-70863.16863377765</v>
+        <v>-8875.508646660668</v>
       </c>
       <c r="F6" t="n">
-        <v>152936.1251182505</v>
+        <v>152859.5665634536</v>
       </c>
       <c r="G6" t="n">
-        <v>152936.1251182505</v>
+        <v>152859.5665634536</v>
       </c>
       <c r="H6" t="n">
-        <v>152936.1251182505</v>
+        <v>152859.5665634534</v>
       </c>
       <c r="I6" t="n">
-        <v>139929.1926561178</v>
+        <v>139905.9683167353</v>
       </c>
       <c r="J6" t="n">
-        <v>47279.44294396702</v>
+        <v>-2337.145536039015</v>
       </c>
       <c r="K6" t="n">
-        <v>158293.9082889572</v>
+        <v>144456.6753817298</v>
       </c>
       <c r="L6" t="n">
-        <v>149346.2972004479</v>
+        <v>158270.6839495746</v>
       </c>
       <c r="M6" t="n">
-        <v>-28497.07832151114</v>
+        <v>23280.73933657123</v>
       </c>
       <c r="N6" t="n">
-        <v>158293.9082889572</v>
+        <v>158270.6839495747</v>
       </c>
       <c r="O6" t="n">
-        <v>158293.9082889574</v>
+        <v>158270.6839495746</v>
       </c>
       <c r="P6" t="n">
-        <v>158293.9082889573</v>
+        <v>158270.6839495747</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314071</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="H4" t="n">
         <v>1209.19970851394</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052144</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130278</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.550515282533</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080524</v>
+        <v>69.06079487080501</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052144</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130278</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282533</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052144</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130278</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282533</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>35.19743385945435</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.6220876429559</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>94.49827012357804</v>
+        <v>231.7223367726543</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>327.9615906091027</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,10 +27625,10 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>116.2695231293974</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>119.5821359351618</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>52.01701577190843</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>274.5944377310612</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>42.13535907701782</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.447248836927884</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>74.15349933190407</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-4.202515412892207e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>479.9987875054338</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773355</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854691</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>308.3808099909393</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,10 +35009,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314071</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314071</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>441.0775086564008</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314073</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662757</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314071</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314073</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314071</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476427887</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>258.4234241057208</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>309.6062697457119</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807414</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N17" t="n">
-        <v>309.6062697457119</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>40.81776196807414</v>
+        <v>40.81776196807505</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36999,7 +36999,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>446.726063795601</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512943</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37549,7 +37549,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38175,16 +38175,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645584</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512945</v>
